--- a/code/results/entropy_P1_sampen_2_1_0.8_pre_stats.xlsx
+++ b/code/results/entropy_P1_sampen_2_1_0.8_pre_stats.xlsx
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.02417579628680302</v>
+        <v>0.02417579628680303</v>
       </c>
       <c r="F10" t="n">
         <v>-3.586868715368698</v>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.6624591134206294</v>
+        <v>0.6624591134206295</v>
       </c>
       <c r="F12" t="n">
         <v>-1.267027306128996</v>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.005020253629100836</v>
+        <v>0.005020253629100835</v>
       </c>
       <c r="F40" t="n">
         <v>-3.287287790504339</v>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.6363659166366989</v>
+        <v>0.6363659166366988</v>
       </c>
       <c r="F45" t="n">
         <v>-1.481194250073271</v>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.0007497506840206445</v>
+        <v>0.0007497506840206446</v>
       </c>
       <c r="F50" t="n">
         <v>22.28515486417503</v>
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.3645764708184698</v>
+        <v>0.3645764708184699</v>
       </c>
       <c r="F75" t="n">
         <v>-3.683673883465985</v>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.004644757420167239</v>
+        <v>0.00464475742016724</v>
       </c>
       <c r="F78" t="n">
         <v>21.00883628204022</v>
@@ -2978,7 +2978,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>9.111037636512998e-08</v>
+        <v>9.111037636512995e-08</v>
       </c>
       <c r="F85" t="n">
         <v>-27.66039957832582</v>
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.8426930167142048</v>
+        <v>0.8426930167142049</v>
       </c>
       <c r="F88" t="n">
         <v>-0.5416721604673393</v>
@@ -3128,7 +3128,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.2644912012827559</v>
+        <v>0.2644912012827558</v>
       </c>
       <c r="F90" t="n">
         <v>5.75530968678649</v>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.06944213813608316</v>
+        <v>0.06944213813608317</v>
       </c>
       <c r="F107" t="n">
         <v>4.821970627562703</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.3056302587832047</v>
+        <v>0.3056302587832046</v>
       </c>
       <c r="F113" t="n">
         <v>2.020483344615909</v>
@@ -3968,7 +3968,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.6149315494447852</v>
+        <v>0.6149315494447853</v>
       </c>
       <c r="F118" t="n">
         <v>0.9960801764028577</v>
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.3499795991469055</v>
+        <v>0.3499795991469056</v>
       </c>
       <c r="F122" t="n">
         <v>-3.769789518383615</v>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.02682945271643221</v>
+        <v>0.0268294527164322</v>
       </c>
       <c r="F127" t="n">
         <v>-13.00019692983663</v>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>5.807867815084908e-07</v>
+        <v>5.807867815084909e-07</v>
       </c>
       <c r="F134" t="n">
         <v>-22.65772342926917</v>
@@ -4718,7 +4718,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.3818639797375896</v>
+        <v>0.3818639797375897</v>
       </c>
       <c r="F143" t="n">
         <v>1.480230279706199</v>
@@ -4748,7 +4748,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.7521301821845249</v>
+        <v>0.7521301821845248</v>
       </c>
       <c r="F144" t="n">
         <v>1.192300011647021</v>
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.8370879262910046</v>
+        <v>0.8370879262910047</v>
       </c>
       <c r="F181" t="n">
         <v>-2.396943866311521</v>
